--- a/flows/CORN_fund_flow_data.xlsx
+++ b/flows/CORN_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3310"/>
+  <dimension ref="A1:B3328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33535,6 +33535,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3311">
+      <c r="A3311" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B3311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3320" t="n">
+        <v>1.467</v>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3321" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3327">
+      <c r="A3327" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3328">
+      <c r="A3328" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3328" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
